--- a/schedule_mate/schedule_mate_input.xlsx
+++ b/schedule_mate/schedule_mate_input.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Regeneráció</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Data analysis webinár</t>
-  </si>
-  <si>
-    <t>Alvás</t>
   </si>
 </sst>
 </file>
@@ -135,7 +132,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="yyyy/\ m/\ d\.\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/\ m/\ d\.\ h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -185,7 +182,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,7 +776,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,25 +914,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>45733.965277777781</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>45734.319444444445</v>
-      </c>
-      <c r="E7" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule_mate/schedule_mate_input.xlsx
+++ b/schedule_mate/schedule_mate_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks_flex" sheetId="1" r:id="rId1"/>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D3" s="2">
         <v>6</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -775,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -840,7 +840,7 @@
         <v>45733.5625</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D7" si="0">C3+E3/24</f>
+        <f t="shared" ref="D3:D6" si="0">C3+E3/24</f>
         <v>45733.625</v>
       </c>
       <c r="E3" s="3">
